--- a/death_causes.xlsx
+++ b/death_causes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niuta\Documents\Develop\excel_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niuta\Documents\Develop\python\Lab7\miniptoject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D412D681-80C0-4151-9EA8-057FD06CA46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCABA7F-52AF-4ACE-990A-6DE0632EF587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{A52D3E4C-CA30-47AF-BE4F-6F6B04D47B36}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A52D3E4C-CA30-47AF-BE4F-6F6B04D47B36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">Всього померлих/Deaths by major causes of death total deaths </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>хвороб системи кровообігу/ blood circulation decease</t>
   </si>
@@ -56,16 +53,13 @@
     <t>COVID-19</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Рік</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -120,24 +114,22 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,11 +445,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F681810B-7F4A-408D-B606-B060DE6D6B40}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -466,760 +456,603 @@
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1990</v>
       </c>
       <c r="B2" s="3">
-        <v>629.6</v>
+        <v>332.9</v>
       </c>
       <c r="C2" s="3">
-        <v>332.9</v>
-      </c>
-      <c r="D2" s="3">
         <v>102.3</v>
       </c>
-      <c r="E2" s="4">
+      <c r="D2" s="4">
         <v>50.2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="E2" s="3">
         <v>37.299999999999997</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1991</v>
       </c>
       <c r="B3" s="3">
-        <v>669.9</v>
+        <v>349.3</v>
       </c>
       <c r="C3" s="3">
-        <v>349.3</v>
-      </c>
-      <c r="D3" s="3">
         <v>105.1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="D3" s="4">
         <v>54.6</v>
       </c>
-      <c r="F3" s="3">
+      <c r="E3" s="3">
         <v>38.700000000000003</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>1992</v>
       </c>
       <c r="B4" s="3">
-        <v>697.1</v>
+        <v>360</v>
       </c>
       <c r="C4" s="3">
-        <v>360</v>
-      </c>
-      <c r="D4" s="3">
         <v>105.8</v>
       </c>
-      <c r="E4" s="4">
+      <c r="D4" s="4">
         <v>58.9</v>
       </c>
-      <c r="F4" s="3">
+      <c r="E4" s="3">
         <v>38.5</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>1993</v>
       </c>
       <c r="B5" s="3">
-        <v>741.7</v>
+        <v>408.3</v>
       </c>
       <c r="C5" s="3">
-        <v>408.3</v>
-      </c>
-      <c r="D5" s="3">
         <v>104.6</v>
       </c>
-      <c r="E5" s="4">
+      <c r="D5" s="4">
         <v>60.1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="E5" s="3">
         <v>42.4</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>1994</v>
       </c>
       <c r="B6" s="3">
-        <v>764.7</v>
+        <v>432.3</v>
       </c>
       <c r="C6" s="3">
-        <v>432.3</v>
-      </c>
-      <c r="D6" s="3">
         <v>104.7</v>
       </c>
-      <c r="E6" s="4">
+      <c r="D6" s="4">
         <v>66.5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="E6" s="3">
         <v>44.5</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>1995</v>
       </c>
       <c r="B7" s="3">
-        <v>792.6</v>
+        <v>450.4</v>
       </c>
       <c r="C7" s="3">
-        <v>450.4</v>
-      </c>
-      <c r="D7" s="3">
         <v>102.5</v>
       </c>
-      <c r="E7" s="4">
+      <c r="D7" s="4">
         <v>72.3</v>
       </c>
-      <c r="F7" s="3">
+      <c r="E7" s="3">
         <v>46.1</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>1996</v>
       </c>
       <c r="B8" s="3">
-        <v>776.7</v>
+        <v>446.8</v>
       </c>
       <c r="C8" s="3">
-        <v>446.8</v>
-      </c>
-      <c r="D8" s="3">
         <v>99.2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="D8" s="4">
         <v>70.400000000000006</v>
       </c>
-      <c r="F8" s="3">
+      <c r="E8" s="3">
         <v>44</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>1997</v>
       </c>
       <c r="B9" s="3">
-        <v>754.2</v>
+        <v>446.4</v>
       </c>
       <c r="C9" s="3">
-        <v>446.4</v>
-      </c>
-      <c r="D9" s="3">
         <v>97.9</v>
       </c>
-      <c r="E9" s="4">
+      <c r="D9" s="4">
         <v>65.3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="E9" s="3">
         <v>41.4</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>1998</v>
       </c>
       <c r="B10" s="3">
-        <v>719.9</v>
+        <v>434</v>
       </c>
       <c r="C10" s="3">
-        <v>434</v>
-      </c>
-      <c r="D10" s="3">
         <v>97.8</v>
       </c>
-      <c r="E10" s="4">
+      <c r="D10" s="4">
         <v>61.900000000000006</v>
       </c>
-      <c r="F10" s="3">
+      <c r="E10" s="3">
         <v>36.299999999999997</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>1999</v>
       </c>
       <c r="B11" s="3">
-        <v>739.2</v>
+        <v>448.9</v>
       </c>
       <c r="C11" s="3">
-        <v>448.9</v>
-      </c>
-      <c r="D11" s="3">
         <v>98.5</v>
       </c>
-      <c r="E11" s="4">
+      <c r="D11" s="4">
         <v>62.6</v>
       </c>
-      <c r="F11" s="3">
+      <c r="E11" s="3">
         <v>37.1</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>2000</v>
       </c>
       <c r="B12" s="3">
-        <v>758.1</v>
+        <v>463.9</v>
       </c>
       <c r="C12" s="3">
-        <v>463.9</v>
-      </c>
-      <c r="D12" s="3">
         <v>97.8</v>
       </c>
-      <c r="E12" s="4">
+      <c r="D12" s="4">
         <v>64.199999999999989</v>
       </c>
-      <c r="F12" s="3">
+      <c r="E12" s="3">
         <v>37.9</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>2001</v>
       </c>
       <c r="B13" s="3">
-        <v>746</v>
+        <v>457.4</v>
       </c>
       <c r="C13" s="3">
-        <v>457.4</v>
-      </c>
-      <c r="D13" s="3">
         <v>95.6</v>
       </c>
-      <c r="E13" s="4">
+      <c r="D13" s="4">
         <v>65.5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="E13" s="3">
         <v>33.5</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>2002</v>
       </c>
       <c r="B14" s="3">
-        <v>754.9</v>
+        <v>465.3</v>
       </c>
       <c r="C14" s="3">
-        <v>465.3</v>
-      </c>
-      <c r="D14" s="3">
         <v>95.1</v>
       </c>
-      <c r="E14" s="4">
+      <c r="D14" s="4">
         <v>66</v>
       </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
         <v>31.8</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>2003</v>
       </c>
       <c r="B15" s="3">
-        <v>765.4</v>
+        <v>478.7</v>
       </c>
       <c r="C15" s="3">
-        <v>478.7</v>
-      </c>
-      <c r="D15" s="3">
         <v>93.2</v>
       </c>
-      <c r="E15" s="4">
+      <c r="D15" s="4">
         <v>62.8</v>
       </c>
-      <c r="F15" s="3">
+      <c r="E15" s="3">
         <v>30.3</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>2004</v>
       </c>
       <c r="B16" s="3">
-        <v>761.3</v>
+        <v>473.7</v>
       </c>
       <c r="C16" s="3">
-        <v>473.7</v>
-      </c>
-      <c r="D16" s="3">
         <v>92.1</v>
       </c>
-      <c r="E16" s="4">
+      <c r="D16" s="4">
         <v>60.699999999999996</v>
       </c>
-      <c r="F16" s="3">
+      <c r="E16" s="3">
         <v>28.5</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>2005</v>
       </c>
       <c r="B17" s="4">
-        <v>782</v>
+        <v>488.8</v>
       </c>
       <c r="C17" s="4">
-        <v>488.8</v>
-      </c>
-      <c r="D17" s="4">
         <v>91.8</v>
       </c>
-      <c r="E17" s="1">
+      <c r="D17" s="5">
         <v>70</v>
       </c>
-      <c r="F17" s="1">
+      <c r="E17" s="5">
         <v>28</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>2006</v>
       </c>
       <c r="B18" s="4">
-        <v>758.1</v>
+        <v>480.8</v>
       </c>
       <c r="C18" s="4">
-        <v>480.8</v>
-      </c>
-      <c r="D18" s="4">
         <v>90.4</v>
       </c>
-      <c r="E18" s="1">
+      <c r="D18" s="5">
         <v>64.599999999999994</v>
       </c>
-      <c r="F18" s="1">
+      <c r="E18" s="5">
         <v>24.7</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>2007</v>
       </c>
       <c r="B19" s="4">
-        <v>762.9</v>
+        <v>480.6</v>
       </c>
       <c r="C19" s="4">
-        <v>480.6</v>
-      </c>
-      <c r="D19" s="4">
         <v>90</v>
       </c>
-      <c r="E19" s="1">
+      <c r="D19" s="5">
         <v>66</v>
       </c>
-      <c r="F19" s="1">
+      <c r="E19" s="5">
         <v>25.1</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>2008</v>
       </c>
       <c r="B20" s="4">
-        <v>754.5</v>
+        <v>480.1</v>
       </c>
       <c r="C20" s="4">
-        <v>480.1</v>
-      </c>
-      <c r="D20" s="4">
         <v>89</v>
       </c>
-      <c r="E20" s="1">
+      <c r="D20" s="5">
         <v>61.4</v>
       </c>
-      <c r="F20" s="1">
+      <c r="E20" s="5">
         <v>23.3</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>2009</v>
       </c>
       <c r="B21" s="4">
-        <v>706.7</v>
+        <v>460.6</v>
       </c>
       <c r="C21" s="4">
-        <v>460.6</v>
-      </c>
-      <c r="D21" s="4">
         <v>88.6</v>
       </c>
-      <c r="E21" s="1">
+      <c r="D21" s="5">
         <v>48.9</v>
       </c>
-      <c r="F21" s="1">
+      <c r="E21" s="5">
         <v>21.1</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>2010</v>
       </c>
       <c r="B22" s="4">
-        <v>698.2</v>
+        <v>465.1</v>
       </c>
       <c r="C22" s="4">
-        <v>465.1</v>
-      </c>
-      <c r="D22" s="4">
         <v>88.8</v>
       </c>
-      <c r="E22" s="1">
+      <c r="D22" s="5">
         <v>44</v>
       </c>
-      <c r="F22" s="1">
+      <c r="E22" s="5">
         <v>19.5</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>2011</v>
       </c>
       <c r="B23" s="4">
-        <v>664.6</v>
+        <v>440.3</v>
       </c>
       <c r="C23" s="4">
-        <v>440.3</v>
-      </c>
-      <c r="D23" s="4">
         <v>89</v>
       </c>
-      <c r="E23" s="1">
+      <c r="D23" s="5">
         <v>42.4</v>
       </c>
-      <c r="F23" s="1">
+      <c r="E23" s="5">
         <v>17.899999999999999</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>2012</v>
       </c>
       <c r="B24" s="4">
-        <v>663.1</v>
+        <v>436.4</v>
       </c>
       <c r="C24" s="4">
-        <v>436.4</v>
-      </c>
-      <c r="D24" s="4">
         <v>92.9</v>
       </c>
-      <c r="E24" s="1">
+      <c r="D24" s="5">
         <v>41.7</v>
       </c>
-      <c r="F24" s="1">
+      <c r="E24" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>2013</v>
       </c>
       <c r="B25" s="4">
-        <v>662.4</v>
+        <v>440.4</v>
       </c>
       <c r="C25" s="4">
-        <v>440.4</v>
-      </c>
-      <c r="D25" s="4">
         <v>92.3</v>
       </c>
-      <c r="E25" s="1">
+      <c r="D25" s="5">
         <v>40.299999999999997</v>
       </c>
-      <c r="F25" s="1">
+      <c r="E25" s="5">
         <v>16.5</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>2014</v>
       </c>
       <c r="B26" s="4">
-        <v>632.29999999999995</v>
+        <v>425.6</v>
       </c>
       <c r="C26" s="4">
-        <v>425.6</v>
-      </c>
-      <c r="D26" s="4">
         <v>83.9</v>
       </c>
-      <c r="E26" s="1">
+      <c r="D26" s="5">
         <v>40.1</v>
       </c>
-      <c r="F26" s="1">
+      <c r="E26" s="5">
         <v>14.8</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>2015</v>
       </c>
       <c r="B27" s="4">
-        <v>594.79999999999995</v>
+        <v>404.6</v>
       </c>
       <c r="C27" s="4">
-        <v>404.6</v>
-      </c>
-      <c r="D27" s="4">
         <v>79.5</v>
       </c>
-      <c r="E27" s="1">
+      <c r="D27" s="5">
         <v>34.6</v>
       </c>
-      <c r="F27" s="1">
+      <c r="E27" s="5">
         <v>14</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>2016</v>
       </c>
       <c r="B28" s="4">
-        <v>583.6</v>
+        <v>392.3</v>
       </c>
       <c r="C28" s="4">
-        <v>392.3</v>
-      </c>
-      <c r="D28" s="4">
         <v>79</v>
       </c>
-      <c r="E28" s="1">
+      <c r="D28" s="5">
         <v>31.7</v>
       </c>
-      <c r="F28" s="1">
+      <c r="E28" s="5">
         <v>13.8</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>2017</v>
       </c>
       <c r="B29" s="4">
-        <v>574.1</v>
+        <v>384.8</v>
       </c>
       <c r="C29" s="4">
-        <v>384.8</v>
-      </c>
-      <c r="D29" s="4">
         <v>78.3</v>
       </c>
+      <c r="D29" s="5">
+        <v>31.2</v>
+      </c>
       <c r="E29" s="5">
-        <v>31.2</v>
-      </c>
-      <c r="F29" s="1">
         <v>12.2</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>2018</v>
       </c>
       <c r="B30" s="4">
-        <v>587.70000000000005</v>
+        <v>392.1</v>
       </c>
       <c r="C30" s="4">
-        <v>392.1</v>
-      </c>
-      <c r="D30" s="4">
         <v>78.599999999999994</v>
       </c>
+      <c r="D30" s="5">
+        <v>30.9</v>
+      </c>
       <c r="E30" s="5">
-        <v>30.9</v>
-      </c>
-      <c r="F30" s="1">
         <v>13</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>2019</v>
       </c>
       <c r="B31" s="4">
-        <v>581.1</v>
+        <v>389.3</v>
       </c>
       <c r="C31" s="4">
-        <v>389.3</v>
-      </c>
-      <c r="D31" s="4">
         <v>78.2</v>
       </c>
+      <c r="D31" s="6">
+        <v>30</v>
+      </c>
       <c r="E31" s="6">
-        <v>30</v>
-      </c>
-      <c r="F31" s="7">
         <v>12.5</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>2020</v>
       </c>
       <c r="B32" s="4">
-        <v>616.79999999999995</v>
+        <v>408.2</v>
       </c>
       <c r="C32" s="4">
-        <v>408.2</v>
-      </c>
-      <c r="D32" s="4">
         <v>77.900000000000006</v>
       </c>
+      <c r="D32" s="6">
+        <v>28.6</v>
+      </c>
       <c r="E32" s="6">
-        <v>28.6</v>
+        <v>16.5</v>
       </c>
       <c r="F32" s="7">
-        <v>16.5</v>
-      </c>
-      <c r="G32" s="2">
         <v>21.3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>2021</v>
       </c>
       <c r="B33" s="4">
-        <v>714.3</v>
+        <v>429.3</v>
       </c>
       <c r="C33" s="4">
-        <v>429.3</v>
-      </c>
-      <c r="D33" s="4">
         <v>74.400000000000006</v>
       </c>
+      <c r="D33" s="6">
+        <v>28.8</v>
+      </c>
       <c r="E33" s="6">
-        <v>28.8</v>
-      </c>
-      <c r="F33" s="7">
         <v>26.4</v>
       </c>
-      <c r="G33" s="6">
+      <c r="F33" s="6">
         <v>87.6</v>
       </c>
     </row>
